--- a/src/main/webapp/res/file/admin/학점졸업요건.xlsx
+++ b/src/main/webapp/res/file/admin/학점졸업요건.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\[PROJECT]\database capstone design\문서\[참고 자료]\양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD8D4C-7F71-40E3-AE85-2036449B6ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA4C7F-5468-4356-94B1-D0FAA7653AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1" xr2:uid="{F7583E13-4D1E-4254-8A84-D4DD6717B4BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{F7583E13-4D1E-4254-8A84-D4DD6717B4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>적용년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,34 +114,6 @@
   </si>
   <si>
     <t>졸업요건명은 공통 또는 존재하여야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신문방송학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A6700-F250-428A-B808-13B9CCB1BC7F}">
   <dimension ref="B1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -757,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FF768-8C73-456D-AD7F-1631566D6506}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -805,59 +777,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/webapp/res/file/admin/학점졸업요건.xlsx
+++ b/src/main/webapp/res/file/admin/학점졸업요건.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\[PROJECT]\database capstone design\문서\[참고 자료]\양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\[PROJECT]\database capstone design\문서\[참고 자료]\양식\DB 저장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA4C7F-5468-4356-94B1-D0FAA7653AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC0371-8522-4C39-848C-A0C827590CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{F7583E13-4D1E-4254-8A84-D4DD6717B4BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1" xr2:uid="{F7583E13-4D1E-4254-8A84-D4DD6717B4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>적용년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,98 @@
   </si>
   <si>
     <t>졸업요건명은 공통 또는 존재하여야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치역량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대안역량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실천역량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공기초과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타과학생 복수전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 과목 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타과학생 부전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공심화과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세졸업과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A6700-F250-428A-B808-13B9CCB1BC7F}">
   <dimension ref="B1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -727,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FF768-8C73-456D-AD7F-1631566D6506}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -777,18 +869,581 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3">
+        <v>130</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C4" s="2"/>
+      <c r="B4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C5" s="2"/>
+      <c r="B5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
